--- a/medicine/Enfance/Stacey_Fru/Stacey_Fru.xlsx
+++ b/medicine/Enfance/Stacey_Fru/Stacey_Fru.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stacey Fru, née le 16 février 2007 à Johannesbourg[1], est une romancière sud-africaine. Elle est l'une des plus jeunes autrices publiées du continent africain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stacey Fru, née le 16 février 2007 à Johannesbourg, est une romancière sud-africaine. Elle est l'une des plus jeunes autrices publiées du continent africain.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née en 2007 à Johannesbourg[2], ses parents sont originaires du nord du Cameroun[3]. Sa mère, Victorine Mbong Shu, a écrit plusieurs livre sur la parentalité[3]. Elle écrit son premier roman, Smelling Cats, à l'âge de sept ans sans que ses parents ne soient au courant[4]. Lorsque sa mère découvre son manuscrit, elle le fait publier[3].
-Son roman Tim's Answer, est publié en 2019 en Afrique du Sud, simultanément en version écrite et en braille pour encourager l'inclusion[5].
-En 2018, elle fonde sa propre fondation, la Stacey Fru Foundation qui travaille dans l'aide à l'éducation des enfants en Afrique[6]. L'association fait également des dons de livres aux écoliers du continent[3].
-En avril 2022, elle prend le poste de présidente de la société de technologie AfroStory[6]. En avril 2023, elle est une des personnes récompensées par les World Literacy Awards[7]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née en 2007 à Johannesbourg, ses parents sont originaires du nord du Cameroun. Sa mère, Victorine Mbong Shu, a écrit plusieurs livre sur la parentalité. Elle écrit son premier roman, Smelling Cats, à l'âge de sept ans sans que ses parents ne soient au courant. Lorsque sa mère découvre son manuscrit, elle le fait publier.
+Son roman Tim's Answer, est publié en 2019 en Afrique du Sud, simultanément en version écrite et en braille pour encourager l'inclusion.
+En 2018, elle fonde sa propre fondation, la Stacey Fru Foundation qui travaille dans l'aide à l'éducation des enfants en Afrique. L'association fait également des dons de livres aux écoliers du continent.
+En avril 2022, elle prend le poste de présidente de la société de technologie AfroStory. En avril 2023, elle est une des personnes récompensées par les World Literacy Awards. 
 </t>
         </is>
       </c>
@@ -545,11 +559,13 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2016 : Best Early Childhood Development de la National Development Agency[3]
-2021 : Global Child Prodigy Award[8]
-2022 : Ordre du Mérite camerounais[4]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2016 : Best Early Childhood Development de la National Development Agency
+2021 : Global Child Prodigy Award
+2022 : Ordre du Mérite camerounais</t>
         </is>
       </c>
     </row>
@@ -577,7 +593,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Smelly Cats, 2015
 Bob and the Snake, 2016
